--- a/reportes/Josue.xlsx
+++ b/reportes/Josue.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +454,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="29" customWidth="1" min="1" max="1"/>
-    <col width="33" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
     <col width="2" customWidth="1" min="3" max="3"/>
     <col width="2" customWidth="1" min="4" max="4"/>
     <col width="2" customWidth="1" min="5" max="5"/>
@@ -476,7 +476,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Exactitud, Completitud, Validez</t>
+          <t>Usabilidad</t>
         </is>
       </c>
     </row>
@@ -512,7 +512,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-06-08 01:16:22</t>
+          <t>2025-06-08 01:37:30</t>
         </is>
       </c>
     </row>
@@ -542,293 +542,84 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Completitud</t>
+          <t>Usabilidad</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Consistencia</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.0009</v>
-      </c>
-    </row>
+        <v>0.1654</v>
+      </c>
+    </row>
+    <row r="11"/>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Exactitud</t>
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>Score Final</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Usabilidad</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.1654</v>
-      </c>
-    </row>
-    <row r="14"/>
+        <v>0.5273</v>
+      </c>
+    </row>
+    <row r="13"/>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Detalle: Usabilidad</t>
+        </is>
+      </c>
+    </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>Score Final</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.5273</v>
-      </c>
-    </row>
-    <row r="16"/>
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Campo</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HET_CODTARJETA</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8974</v>
+      </c>
+    </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>Detalle: Completitud</t>
-        </is>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HET_ESTADO_ACTUAL</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.7436</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>Campo</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>Score</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="n"/>
-      <c r="D18" s="3" t="n"/>
-      <c r="E18" s="3" t="n"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HET_ESTADO_ANTERIOR</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6667</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HET_CODTARJETA</t>
+          <t>HET_ID</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8974</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>HET_ESTADO_ACTUAL</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.7436</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>HET_ESTADO_ANTERIOR</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.6667</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>HET_FECHA_CAMBIO</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.7179</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>HET_ID</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24"/>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Detalle: Consistencia</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>Campo</t>
-        </is>
-      </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Score</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="n"/>
-      <c r="D26" s="3" t="n"/>
-      <c r="E26" s="3" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>HET_CODTARJETA</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-0.0116</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>HET_ESTADO_ACTUAL</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.3585</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>HET_ESTADO_ANTERIOR</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.3754</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>HET_FECHA_CAMBIO</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-0.1592</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>HET_ID</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.1816</v>
-      </c>
-    </row>
-    <row r="32"/>
-    <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Detalle: Exactitud</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>Campo</t>
-        </is>
-      </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>Score</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="n"/>
-      <c r="D34" s="3" t="n"/>
-      <c r="E34" s="3" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>HET_FECHA_CAMBIO</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36"/>
-    <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>Detalle: Usabilidad</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t>Campo</t>
-        </is>
-      </c>
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t>Score</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="n"/>
-      <c r="D38" s="3" t="n"/>
-      <c r="E38" s="3" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>HET_CODTARJETA</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0.8974</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>HET_ESTADO_ACTUAL</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.7436</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>HET_ESTADO_ANTERIOR</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.6667</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>HET_ID</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
         <v>1</v>
       </c>
     </row>
